--- a/etc/Acceptance Test Plan.xlsx
+++ b/etc/Acceptance Test Plan.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vincent\School\SWEN 261\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bself\Documents\Estore\team-project-2221-swen-261-07-a-bovines\etc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1754EFB3-53C6-4E9B-98BA-DD3DD942F7A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{160CCCB0-037D-4ABD-9FBE-D825910F003B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="48">
   <si>
     <t>Instructions</t>
   </si>
@@ -99,9 +99,6 @@
     <t>Given a user an email is sent to the corresponding email</t>
   </si>
   <si>
-    <t>Given I have items in my shopping cart when I log out and log back in the same items are in my cart.</t>
-  </si>
-  <si>
     <t>As a BUYER I want to add products to my shopping cart.</t>
   </si>
   <si>
@@ -150,9 +147,6 @@
     <t>Given the product page has an item when I click on that item then I will be redirected to a new page where the product and information is shown.</t>
   </si>
   <si>
-    <t>Given I have an order when the customer has checked out then the order appears on the order page.</t>
-  </si>
-  <si>
     <t>Given I have checked out when I clicked check out then I get a confirmation pop-up saying my order is confirmed.</t>
   </si>
   <si>
@@ -169,6 +163,18 @@
   </si>
   <si>
     <t>Given an owner wants to edit the qty when the url for editQuantity is called then the quantity should change.</t>
+  </si>
+  <si>
+    <t>Given I have items in my shopping cart when I log out and log back in the same items are in my cart. Given an a user has placed an order when the server is sent a put request then the server stores it in a file. Given an a user has queried an order when the server is sent a get request then the server retrieves the order from a file.</t>
+  </si>
+  <si>
+    <t>Given I have an order when the customer has checked out then the order appears on the order page. Given I am an admin when logged in when I click manage orders then I will be shown a page with a list of all previous orders, and their information, and the ability to fulfill those orders by sending a confirmation email.</t>
+  </si>
+  <si>
+    <t>As an Engineer I want a way of accessing the stored data so that i can display it for the user.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Given a functional DAO when I receive a request for a list of orders then I expect the orders to be sent. Given a functional DAO and a user when I receive a request to search a list of orders then I expect to return a list of orders with said user to be sent. Given a functional DAO when I receive a request to save the orders then I expect the orders to be saved int the DAO. </t>
   </si>
 </sst>
 </file>
@@ -240,7 +246,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -268,9 +274,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -667,13 +670,13 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="21" style="1" customWidth="1"/>
-    <col min="2" max="2" width="106.875" customWidth="1"/>
+    <col min="2" max="2" width="106.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="283.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="280.8" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -681,7 +684,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -689,7 +692,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -711,1895 +714,1901 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F586"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F10" sqref="F10"/>
+      <selection pane="topRight" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="60" style="2" customWidth="1"/>
-    <col min="2" max="2" width="50.625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="22.25" style="2" customWidth="1"/>
-    <col min="4" max="4" width="23.875" style="11" customWidth="1"/>
-    <col min="5" max="5" width="22.125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="50.59765625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="22.19921875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="23.8984375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="22.09765625" style="2" customWidth="1"/>
     <col min="6" max="6" width="60" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="10.875" style="5"/>
+    <col min="7" max="16384" width="10.8984375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="4" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="110.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="109.2" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="D2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="218.4" x14ac:dyDescent="0.3">
       <c r="A3" s="7"/>
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="D3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="218.4" x14ac:dyDescent="0.3">
       <c r="A4" s="7"/>
       <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="126" x14ac:dyDescent="0.25">
+      <c r="D4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="140.4" x14ac:dyDescent="0.3">
       <c r="A5" s="7"/>
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="142.5" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:6" ht="156.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="7"/>
       <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="94.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:6" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="110.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:6" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="D8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="E9" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="78" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="D10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="249.6" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="D11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="2" t="s">
+    </row>
+    <row r="13" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="B13" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B14" s="8"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B15" s="8"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B16" s="8"/>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" s="8"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" s="8"/>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B19" s="8"/>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20" s="8"/>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B21" s="8"/>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B22" s="8"/>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B23" s="8"/>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B24" s="8"/>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B25" s="8"/>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B26" s="8"/>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B27" s="8"/>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B28" s="8"/>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B29" s="8"/>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B30" s="8"/>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B31" s="8"/>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B32" s="8"/>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B33" s="8"/>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B34" s="8"/>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B35" s="8"/>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B36" s="8"/>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B37" s="8"/>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B38" s="8"/>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B39" s="8"/>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B40" s="8"/>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B41" s="8"/>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B42" s="8"/>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B43" s="8"/>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B44" s="8"/>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B45" s="8"/>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B46" s="8"/>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B47" s="8"/>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B48" s="8"/>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B49" s="8"/>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B50" s="8"/>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B51" s="8"/>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B52" s="8"/>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B53" s="8"/>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B54" s="8"/>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B55" s="8"/>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B56" s="8"/>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B57" s="8"/>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B58" s="8"/>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B59" s="8"/>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B60" s="8"/>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B61" s="8"/>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B62" s="8"/>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B63" s="8"/>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B64" s="8"/>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B65" s="8"/>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B66" s="8"/>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B67" s="8"/>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B68" s="8"/>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B69" s="8"/>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B70" s="8"/>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B71" s="8"/>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B72" s="8"/>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B73" s="8"/>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B74" s="8"/>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B75" s="8"/>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B76" s="8"/>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B77" s="8"/>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B78" s="8"/>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B79" s="8"/>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B80" s="8"/>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B81" s="8"/>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B82" s="8"/>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B83" s="8"/>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B84" s="8"/>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B85" s="8"/>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B86" s="8"/>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B87" s="8"/>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B88" s="8"/>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B89" s="8"/>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B90" s="8"/>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B91" s="8"/>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B92" s="8"/>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B93" s="8"/>
     </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B94" s="8"/>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B95" s="8"/>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B96" s="8"/>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B97" s="8"/>
     </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B98" s="8"/>
     </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B99" s="8"/>
     </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B100" s="8"/>
     </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B101" s="8"/>
     </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B102" s="8"/>
     </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B103" s="8"/>
     </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B104" s="8"/>
     </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B105" s="8"/>
     </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B106" s="8"/>
     </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B107" s="8"/>
     </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B108" s="8"/>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B109" s="8"/>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B110" s="8"/>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B111" s="8"/>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B112" s="8"/>
     </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B113" s="8"/>
     </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B114" s="8"/>
     </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B115" s="8"/>
     </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B116" s="8"/>
     </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B117" s="8"/>
     </row>
-    <row r="118" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B118" s="8"/>
     </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B119" s="8"/>
     </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B120" s="8"/>
     </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B121" s="8"/>
     </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B122" s="8"/>
     </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B123" s="8"/>
     </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B124" s="8"/>
     </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B125" s="8"/>
     </row>
-    <row r="126" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B126" s="8"/>
     </row>
-    <row r="127" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B127" s="8"/>
     </row>
-    <row r="128" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B128" s="8"/>
     </row>
-    <row r="129" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B129" s="8"/>
     </row>
-    <row r="130" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B130" s="8"/>
     </row>
-    <row r="131" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B131" s="8"/>
     </row>
-    <row r="132" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B132" s="8"/>
     </row>
-    <row r="133" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B133" s="8"/>
     </row>
-    <row r="134" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B134" s="8"/>
     </row>
-    <row r="135" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B135" s="8"/>
     </row>
-    <row r="136" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B136" s="8"/>
     </row>
-    <row r="137" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B137" s="8"/>
     </row>
-    <row r="138" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B138" s="8"/>
     </row>
-    <row r="139" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B139" s="8"/>
     </row>
-    <row r="140" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B140" s="8"/>
     </row>
-    <row r="141" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B141" s="8"/>
     </row>
-    <row r="142" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B142" s="8"/>
     </row>
-    <row r="143" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B143" s="8"/>
     </row>
-    <row r="144" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B144" s="8"/>
     </row>
-    <row r="145" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B145" s="8"/>
     </row>
-    <row r="146" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B146" s="8"/>
     </row>
-    <row r="147" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B147" s="8"/>
     </row>
-    <row r="148" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B148" s="8"/>
     </row>
-    <row r="149" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B149" s="8"/>
     </row>
-    <row r="150" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B150" s="8"/>
     </row>
-    <row r="151" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B151" s="8"/>
     </row>
-    <row r="152" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B152" s="8"/>
     </row>
-    <row r="153" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B153" s="8"/>
     </row>
-    <row r="154" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B154" s="8"/>
     </row>
-    <row r="155" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B155" s="8"/>
     </row>
-    <row r="156" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B156" s="8"/>
     </row>
-    <row r="157" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B157" s="8"/>
     </row>
-    <row r="158" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B158" s="8"/>
     </row>
-    <row r="159" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B159" s="8"/>
     </row>
-    <row r="160" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B160" s="8"/>
     </row>
-    <row r="161" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B161" s="8"/>
     </row>
-    <row r="162" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B162" s="8"/>
     </row>
-    <row r="163" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B163" s="8"/>
     </row>
-    <row r="164" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B164" s="8"/>
     </row>
-    <row r="165" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B165" s="8"/>
     </row>
-    <row r="166" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B166" s="8"/>
     </row>
-    <row r="167" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B167" s="8"/>
     </row>
-    <row r="168" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B168" s="8"/>
     </row>
-    <row r="169" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B169" s="8"/>
     </row>
-    <row r="170" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B170" s="8"/>
     </row>
-    <row r="171" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B171" s="8"/>
     </row>
-    <row r="172" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B172" s="8"/>
     </row>
-    <row r="173" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B173" s="8"/>
     </row>
-    <row r="174" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B174" s="8"/>
     </row>
-    <row r="175" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B175" s="8"/>
     </row>
-    <row r="176" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B176" s="8"/>
     </row>
-    <row r="177" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B177" s="8"/>
     </row>
-    <row r="178" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B178" s="8"/>
     </row>
-    <row r="179" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B179" s="8"/>
     </row>
-    <row r="180" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B180" s="8"/>
     </row>
-    <row r="181" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B181" s="8"/>
     </row>
-    <row r="182" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B182" s="8"/>
     </row>
-    <row r="183" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B183" s="8"/>
     </row>
-    <row r="184" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B184" s="8"/>
     </row>
-    <row r="185" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B185" s="8"/>
     </row>
-    <row r="186" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B186" s="8"/>
     </row>
-    <row r="187" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B187" s="8"/>
     </row>
-    <row r="188" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B188" s="8"/>
     </row>
-    <row r="189" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B189" s="8"/>
     </row>
-    <row r="190" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B190" s="8"/>
     </row>
-    <row r="191" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B191" s="8"/>
     </row>
-    <row r="192" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B192" s="8"/>
     </row>
-    <row r="193" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B193" s="8"/>
     </row>
-    <row r="194" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B194" s="8"/>
     </row>
-    <row r="195" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B195" s="8"/>
     </row>
-    <row r="196" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B196" s="8"/>
     </row>
-    <row r="197" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B197" s="8"/>
     </row>
-    <row r="198" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B198" s="8"/>
     </row>
-    <row r="199" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B199" s="8"/>
     </row>
-    <row r="200" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B200" s="8"/>
     </row>
-    <row r="201" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B201" s="8"/>
     </row>
-    <row r="202" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B202" s="8"/>
     </row>
-    <row r="203" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B203" s="8"/>
     </row>
-    <row r="204" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B204" s="8"/>
     </row>
-    <row r="205" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B205" s="8"/>
     </row>
-    <row r="206" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B206" s="8"/>
     </row>
-    <row r="207" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B207" s="8"/>
     </row>
-    <row r="208" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B208" s="8"/>
     </row>
-    <row r="209" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B209" s="8"/>
     </row>
-    <row r="210" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B210" s="8"/>
     </row>
-    <row r="211" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B211" s="8"/>
     </row>
-    <row r="212" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B212" s="8"/>
     </row>
-    <row r="213" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B213" s="8"/>
     </row>
-    <row r="214" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B214" s="8"/>
     </row>
-    <row r="215" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B215" s="8"/>
     </row>
-    <row r="216" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B216" s="8"/>
     </row>
-    <row r="217" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B217" s="8"/>
     </row>
-    <row r="218" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B218" s="8"/>
     </row>
-    <row r="219" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B219" s="8"/>
     </row>
-    <row r="220" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B220" s="8"/>
     </row>
-    <row r="221" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B221" s="8"/>
     </row>
-    <row r="222" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B222" s="8"/>
     </row>
-    <row r="223" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B223" s="8"/>
     </row>
-    <row r="224" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B224" s="8"/>
     </row>
-    <row r="225" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B225" s="8"/>
     </row>
-    <row r="226" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B226" s="8"/>
     </row>
-    <row r="227" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B227" s="8"/>
     </row>
-    <row r="228" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B228" s="8"/>
     </row>
-    <row r="229" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B229" s="8"/>
     </row>
-    <row r="230" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B230" s="8"/>
     </row>
-    <row r="231" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B231" s="8"/>
     </row>
-    <row r="232" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B232" s="8"/>
     </row>
-    <row r="233" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B233" s="8"/>
     </row>
-    <row r="234" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B234" s="8"/>
     </row>
-    <row r="235" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B235" s="8"/>
     </row>
-    <row r="236" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B236" s="8"/>
     </row>
-    <row r="237" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B237" s="8"/>
     </row>
-    <row r="238" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B238" s="8"/>
     </row>
-    <row r="239" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B239" s="8"/>
     </row>
-    <row r="240" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B240" s="8"/>
     </row>
-    <row r="241" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B241" s="8"/>
     </row>
-    <row r="242" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B242" s="8"/>
     </row>
-    <row r="243" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B243" s="8"/>
     </row>
-    <row r="244" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B244" s="8"/>
     </row>
-    <row r="245" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B245" s="8"/>
     </row>
-    <row r="246" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="246" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B246" s="8"/>
     </row>
-    <row r="247" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="247" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B247" s="8"/>
     </row>
-    <row r="248" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="248" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B248" s="8"/>
     </row>
-    <row r="249" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="249" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B249" s="8"/>
     </row>
-    <row r="250" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="250" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B250" s="8"/>
     </row>
-    <row r="251" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="251" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B251" s="8"/>
     </row>
-    <row r="252" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="252" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B252" s="8"/>
     </row>
-    <row r="253" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="253" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B253" s="8"/>
     </row>
-    <row r="254" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="254" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B254" s="8"/>
     </row>
-    <row r="255" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="255" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B255" s="8"/>
     </row>
-    <row r="256" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="256" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B256" s="8"/>
     </row>
-    <row r="257" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="257" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B257" s="8"/>
     </row>
-    <row r="258" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="258" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B258" s="8"/>
     </row>
-    <row r="259" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="259" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B259" s="8"/>
     </row>
-    <row r="260" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="260" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B260" s="8"/>
     </row>
-    <row r="261" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="261" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B261" s="8"/>
     </row>
-    <row r="262" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="262" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B262" s="8"/>
     </row>
-    <row r="263" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="263" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B263" s="8"/>
     </row>
-    <row r="264" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="264" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B264" s="8"/>
     </row>
-    <row r="265" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="265" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B265" s="8"/>
     </row>
-    <row r="266" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="266" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B266" s="8"/>
     </row>
-    <row r="267" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="267" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B267" s="8"/>
     </row>
-    <row r="268" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="268" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B268" s="8"/>
     </row>
-    <row r="269" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="269" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B269" s="8"/>
     </row>
-    <row r="270" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="270" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B270" s="8"/>
     </row>
-    <row r="271" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="271" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B271" s="8"/>
     </row>
-    <row r="272" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="272" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B272" s="8"/>
     </row>
-    <row r="273" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="273" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B273" s="8"/>
     </row>
-    <row r="274" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="274" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B274" s="8"/>
     </row>
-    <row r="275" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="275" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B275" s="8"/>
     </row>
-    <row r="276" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="276" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B276" s="8"/>
     </row>
-    <row r="277" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="277" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B277" s="8"/>
     </row>
-    <row r="278" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="278" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B278" s="8"/>
     </row>
-    <row r="279" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="279" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B279" s="8"/>
     </row>
-    <row r="280" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="280" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B280" s="8"/>
     </row>
-    <row r="281" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="281" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B281" s="8"/>
     </row>
-    <row r="282" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="282" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B282" s="8"/>
     </row>
-    <row r="283" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="283" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B283" s="8"/>
     </row>
-    <row r="284" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="284" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B284" s="8"/>
     </row>
-    <row r="285" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="285" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B285" s="8"/>
     </row>
-    <row r="286" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="286" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B286" s="8"/>
     </row>
-    <row r="287" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="287" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B287" s="8"/>
     </row>
-    <row r="288" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="288" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B288" s="8"/>
     </row>
-    <row r="289" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="289" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B289" s="8"/>
     </row>
-    <row r="290" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="290" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B290" s="8"/>
     </row>
-    <row r="291" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="291" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B291" s="8"/>
     </row>
-    <row r="292" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="292" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B292" s="8"/>
     </row>
-    <row r="293" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="293" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B293" s="8"/>
     </row>
-    <row r="294" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="294" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B294" s="8"/>
     </row>
-    <row r="295" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="295" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B295" s="8"/>
     </row>
-    <row r="296" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="296" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B296" s="8"/>
     </row>
-    <row r="297" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="297" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B297" s="8"/>
     </row>
-    <row r="298" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="298" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B298" s="8"/>
     </row>
-    <row r="299" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="299" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B299" s="8"/>
     </row>
-    <row r="300" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="300" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B300" s="8"/>
     </row>
-    <row r="301" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="301" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B301" s="8"/>
     </row>
-    <row r="302" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="302" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B302" s="8"/>
     </row>
-    <row r="303" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="303" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B303" s="8"/>
     </row>
-    <row r="304" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="304" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B304" s="8"/>
     </row>
-    <row r="305" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="305" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B305" s="8"/>
     </row>
-    <row r="306" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="306" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B306" s="8"/>
     </row>
-    <row r="307" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="307" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B307" s="8"/>
     </row>
-    <row r="308" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="308" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B308" s="8"/>
     </row>
-    <row r="309" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="309" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B309" s="8"/>
     </row>
-    <row r="310" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="310" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B310" s="8"/>
     </row>
-    <row r="311" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="311" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B311" s="8"/>
     </row>
-    <row r="312" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="312" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B312" s="8"/>
     </row>
-    <row r="313" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="313" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B313" s="8"/>
     </row>
-    <row r="314" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="314" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B314" s="8"/>
     </row>
-    <row r="315" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="315" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B315" s="8"/>
     </row>
-    <row r="316" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="316" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B316" s="8"/>
     </row>
-    <row r="317" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="317" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B317" s="8"/>
     </row>
-    <row r="318" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="318" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B318" s="8"/>
     </row>
-    <row r="319" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="319" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B319" s="8"/>
     </row>
-    <row r="320" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="320" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B320" s="8"/>
     </row>
-    <row r="321" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="321" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B321" s="8"/>
     </row>
-    <row r="322" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="322" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B322" s="8"/>
     </row>
-    <row r="323" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="323" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B323" s="8"/>
     </row>
-    <row r="324" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="324" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B324" s="8"/>
     </row>
-    <row r="325" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="325" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B325" s="8"/>
     </row>
-    <row r="326" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="326" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B326" s="8"/>
     </row>
-    <row r="327" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="327" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B327" s="8"/>
     </row>
-    <row r="328" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="328" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B328" s="8"/>
     </row>
-    <row r="329" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="329" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B329" s="8"/>
     </row>
-    <row r="330" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="330" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B330" s="8"/>
     </row>
-    <row r="331" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="331" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B331" s="8"/>
     </row>
-    <row r="332" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="332" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B332" s="8"/>
     </row>
-    <row r="333" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="333" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B333" s="8"/>
     </row>
-    <row r="334" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="334" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B334" s="8"/>
     </row>
-    <row r="335" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="335" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B335" s="8"/>
     </row>
-    <row r="336" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="336" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B336" s="8"/>
     </row>
-    <row r="337" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="337" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B337" s="8"/>
     </row>
-    <row r="338" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="338" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B338" s="8"/>
     </row>
-    <row r="339" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="339" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B339" s="8"/>
     </row>
-    <row r="340" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="340" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B340" s="8"/>
     </row>
-    <row r="341" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="341" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B341" s="8"/>
     </row>
-    <row r="342" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="342" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B342" s="8"/>
     </row>
-    <row r="343" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="343" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B343" s="8"/>
     </row>
-    <row r="344" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="344" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B344" s="8"/>
     </row>
-    <row r="345" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="345" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B345" s="8"/>
     </row>
-    <row r="346" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="346" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B346" s="8"/>
     </row>
-    <row r="347" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="347" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B347" s="8"/>
     </row>
-    <row r="348" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="348" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B348" s="8"/>
     </row>
-    <row r="349" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="349" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B349" s="8"/>
     </row>
-    <row r="350" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="350" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B350" s="8"/>
     </row>
-    <row r="351" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="351" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B351" s="8"/>
     </row>
-    <row r="352" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="352" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B352" s="8"/>
     </row>
-    <row r="353" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="353" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B353" s="8"/>
     </row>
-    <row r="354" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="354" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B354" s="8"/>
     </row>
-    <row r="355" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="355" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B355" s="8"/>
     </row>
-    <row r="356" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="356" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B356" s="8"/>
     </row>
-    <row r="357" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="357" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B357" s="8"/>
     </row>
-    <row r="358" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="358" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B358" s="8"/>
     </row>
-    <row r="359" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="359" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B359" s="8"/>
     </row>
-    <row r="360" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="360" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B360" s="8"/>
     </row>
-    <row r="361" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="361" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B361" s="8"/>
     </row>
-    <row r="362" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="362" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B362" s="8"/>
     </row>
-    <row r="363" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="363" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B363" s="8"/>
     </row>
-    <row r="364" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="364" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B364" s="8"/>
     </row>
-    <row r="365" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="365" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B365" s="8"/>
     </row>
-    <row r="366" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="366" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B366" s="8"/>
     </row>
-    <row r="367" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="367" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B367" s="8"/>
     </row>
-    <row r="368" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="368" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B368" s="8"/>
     </row>
-    <row r="369" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="369" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B369" s="8"/>
     </row>
-    <row r="370" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="370" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B370" s="8"/>
     </row>
-    <row r="371" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="371" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B371" s="8"/>
     </row>
-    <row r="372" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="372" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B372" s="8"/>
     </row>
-    <row r="373" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="373" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B373" s="8"/>
     </row>
-    <row r="374" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="374" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B374" s="8"/>
     </row>
-    <row r="375" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="375" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B375" s="8"/>
     </row>
-    <row r="376" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="376" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B376" s="8"/>
     </row>
-    <row r="377" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="377" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B377" s="8"/>
     </row>
-    <row r="378" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="378" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B378" s="8"/>
     </row>
-    <row r="379" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="379" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B379" s="8"/>
     </row>
-    <row r="380" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="380" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B380" s="8"/>
     </row>
-    <row r="381" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="381" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B381" s="8"/>
     </row>
-    <row r="382" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="382" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B382" s="8"/>
     </row>
-    <row r="383" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="383" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B383" s="8"/>
     </row>
-    <row r="384" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="384" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B384" s="8"/>
     </row>
-    <row r="385" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="385" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B385" s="8"/>
     </row>
-    <row r="386" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="386" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B386" s="8"/>
     </row>
-    <row r="387" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="387" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B387" s="8"/>
     </row>
-    <row r="388" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="388" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B388" s="8"/>
     </row>
-    <row r="389" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="389" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B389" s="8"/>
     </row>
-    <row r="390" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="390" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B390" s="8"/>
     </row>
-    <row r="391" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="391" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B391" s="8"/>
     </row>
-    <row r="392" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="392" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B392" s="8"/>
     </row>
-    <row r="393" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="393" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B393" s="8"/>
     </row>
-    <row r="394" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="394" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B394" s="8"/>
     </row>
-    <row r="395" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="395" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B395" s="8"/>
     </row>
-    <row r="396" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="396" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B396" s="8"/>
     </row>
-    <row r="397" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="397" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B397" s="8"/>
     </row>
-    <row r="398" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="398" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B398" s="8"/>
     </row>
-    <row r="399" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="399" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B399" s="8"/>
     </row>
-    <row r="400" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="400" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B400" s="8"/>
     </row>
-    <row r="401" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="401" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B401" s="8"/>
     </row>
-    <row r="402" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="402" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B402" s="8"/>
     </row>
-    <row r="403" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="403" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B403" s="8"/>
     </row>
-    <row r="404" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="404" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B404" s="8"/>
     </row>
-    <row r="405" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="405" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B405" s="8"/>
     </row>
-    <row r="406" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="406" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B406" s="8"/>
     </row>
-    <row r="407" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="407" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B407" s="8"/>
     </row>
-    <row r="408" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="408" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B408" s="8"/>
     </row>
-    <row r="409" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="409" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B409" s="8"/>
     </row>
-    <row r="410" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="410" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B410" s="8"/>
     </row>
-    <row r="411" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="411" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B411" s="8"/>
     </row>
-    <row r="412" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="412" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B412" s="8"/>
     </row>
-    <row r="413" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="413" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B413" s="8"/>
     </row>
-    <row r="414" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="414" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B414" s="8"/>
     </row>
-    <row r="415" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="415" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B415" s="8"/>
     </row>
-    <row r="416" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="416" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B416" s="8"/>
     </row>
-    <row r="417" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="417" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B417" s="8"/>
     </row>
-    <row r="418" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="418" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B418" s="8"/>
     </row>
-    <row r="419" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="419" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B419" s="8"/>
     </row>
-    <row r="420" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="420" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B420" s="8"/>
     </row>
-    <row r="421" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="421" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B421" s="8"/>
     </row>
-    <row r="422" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="422" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B422" s="8"/>
     </row>
-    <row r="423" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="423" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B423" s="8"/>
     </row>
-    <row r="424" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="424" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B424" s="8"/>
     </row>
-    <row r="425" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="425" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B425" s="8"/>
     </row>
-    <row r="426" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="426" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B426" s="8"/>
     </row>
-    <row r="427" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="427" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B427" s="8"/>
     </row>
-    <row r="428" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="428" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B428" s="8"/>
     </row>
-    <row r="429" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="429" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B429" s="8"/>
     </row>
-    <row r="430" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="430" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B430" s="8"/>
     </row>
-    <row r="431" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="431" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B431" s="8"/>
     </row>
-    <row r="432" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="432" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B432" s="8"/>
     </row>
-    <row r="433" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="433" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B433" s="8"/>
     </row>
-    <row r="434" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="434" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B434" s="8"/>
     </row>
-    <row r="435" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="435" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B435" s="8"/>
     </row>
-    <row r="436" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="436" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B436" s="8"/>
     </row>
-    <row r="437" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="437" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B437" s="8"/>
     </row>
-    <row r="438" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="438" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B438" s="8"/>
     </row>
-    <row r="439" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="439" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B439" s="8"/>
     </row>
-    <row r="440" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="440" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B440" s="8"/>
     </row>
-    <row r="441" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="441" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B441" s="8"/>
     </row>
-    <row r="442" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="442" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B442" s="8"/>
     </row>
-    <row r="443" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="443" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B443" s="8"/>
     </row>
-    <row r="444" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="444" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B444" s="8"/>
     </row>
-    <row r="445" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="445" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B445" s="8"/>
     </row>
-    <row r="446" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="446" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B446" s="8"/>
     </row>
-    <row r="447" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="447" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B447" s="8"/>
     </row>
-    <row r="448" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="448" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B448" s="8"/>
     </row>
-    <row r="449" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="449" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B449" s="8"/>
     </row>
-    <row r="450" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="450" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B450" s="8"/>
     </row>
-    <row r="451" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="451" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B451" s="8"/>
     </row>
-    <row r="452" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="452" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B452" s="8"/>
     </row>
-    <row r="453" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="453" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B453" s="8"/>
     </row>
-    <row r="454" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="454" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B454" s="8"/>
     </row>
-    <row r="455" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="455" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B455" s="8"/>
     </row>
-    <row r="456" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="456" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B456" s="8"/>
     </row>
-    <row r="457" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="457" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B457" s="8"/>
     </row>
-    <row r="458" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="458" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B458" s="8"/>
     </row>
-    <row r="459" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="459" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B459" s="8"/>
     </row>
-    <row r="460" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="460" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B460" s="8"/>
     </row>
-    <row r="461" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="461" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B461" s="8"/>
     </row>
-    <row r="462" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="462" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B462" s="8"/>
     </row>
-    <row r="463" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="463" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B463" s="8"/>
     </row>
-    <row r="464" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="464" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B464" s="8"/>
     </row>
-    <row r="465" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="465" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B465" s="8"/>
     </row>
-    <row r="466" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="466" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B466" s="8"/>
     </row>
-    <row r="467" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="467" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B467" s="8"/>
     </row>
-    <row r="468" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="468" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B468" s="8"/>
     </row>
-    <row r="469" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="469" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B469" s="8"/>
     </row>
-    <row r="470" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="470" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B470" s="8"/>
     </row>
-    <row r="471" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="471" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B471" s="8"/>
     </row>
-    <row r="472" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="472" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B472" s="8"/>
     </row>
-    <row r="473" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="473" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B473" s="8"/>
     </row>
-    <row r="474" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="474" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B474" s="8"/>
     </row>
-    <row r="475" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="475" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B475" s="8"/>
     </row>
-    <row r="476" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="476" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B476" s="8"/>
     </row>
-    <row r="477" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="477" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B477" s="8"/>
     </row>
-    <row r="478" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="478" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B478" s="8"/>
     </row>
-    <row r="479" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="479" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B479" s="8"/>
     </row>
-    <row r="480" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="480" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B480" s="8"/>
     </row>
-    <row r="481" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="481" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B481" s="8"/>
     </row>
-    <row r="482" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="482" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B482" s="8"/>
     </row>
-    <row r="483" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="483" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B483" s="8"/>
     </row>
-    <row r="484" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="484" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B484" s="8"/>
     </row>
-    <row r="485" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="485" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B485" s="8"/>
     </row>
-    <row r="486" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="486" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B486" s="8"/>
     </row>
-    <row r="487" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="487" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B487" s="8"/>
     </row>
-    <row r="488" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="488" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B488" s="8"/>
     </row>
-    <row r="489" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="489" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B489" s="8"/>
     </row>
-    <row r="490" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="490" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B490" s="8"/>
     </row>
-    <row r="491" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="491" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B491" s="8"/>
     </row>
-    <row r="492" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="492" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B492" s="8"/>
     </row>
-    <row r="493" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="493" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B493" s="8"/>
     </row>
-    <row r="494" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="494" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B494" s="8"/>
     </row>
-    <row r="495" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="495" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B495" s="8"/>
     </row>
-    <row r="496" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="496" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B496" s="8"/>
     </row>
-    <row r="497" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="497" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B497" s="8"/>
     </row>
-    <row r="498" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="498" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B498" s="8"/>
     </row>
-    <row r="499" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="499" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B499" s="8"/>
     </row>
-    <row r="500" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="500" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B500" s="8"/>
     </row>
-    <row r="501" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="501" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B501" s="8"/>
     </row>
-    <row r="502" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="502" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B502" s="8"/>
     </row>
-    <row r="503" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="503" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B503" s="8"/>
     </row>
-    <row r="504" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="504" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B504" s="8"/>
     </row>
-    <row r="505" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="505" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B505" s="8"/>
     </row>
-    <row r="506" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="506" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B506" s="8"/>
     </row>
-    <row r="507" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="507" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B507" s="8"/>
     </row>
-    <row r="508" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="508" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B508" s="8"/>
     </row>
-    <row r="509" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="509" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B509" s="8"/>
     </row>
-    <row r="510" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="510" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B510" s="8"/>
     </row>
-    <row r="511" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="511" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B511" s="8"/>
     </row>
-    <row r="512" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="512" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B512" s="8"/>
     </row>
-    <row r="513" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="513" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B513" s="8"/>
     </row>
-    <row r="514" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="514" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B514" s="8"/>
     </row>
-    <row r="515" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="515" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B515" s="8"/>
     </row>
-    <row r="516" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="516" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B516" s="8"/>
     </row>
-    <row r="517" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="517" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B517" s="8"/>
     </row>
-    <row r="518" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="518" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B518" s="8"/>
     </row>
-    <row r="519" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="519" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B519" s="8"/>
     </row>
-    <row r="520" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="520" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B520" s="8"/>
     </row>
-    <row r="521" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="521" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B521" s="8"/>
     </row>
-    <row r="522" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="522" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B522" s="8"/>
     </row>
-    <row r="523" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="523" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B523" s="8"/>
     </row>
-    <row r="524" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="524" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B524" s="8"/>
     </row>
-    <row r="525" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="525" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B525" s="8"/>
     </row>
-    <row r="526" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="526" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B526" s="8"/>
     </row>
-    <row r="527" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="527" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B527" s="8"/>
     </row>
-    <row r="528" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="528" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B528" s="8"/>
     </row>
-    <row r="529" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="529" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B529" s="8"/>
     </row>
-    <row r="530" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="530" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B530" s="8"/>
     </row>
-    <row r="531" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="531" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B531" s="8"/>
     </row>
-    <row r="532" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="532" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B532" s="8"/>
     </row>
-    <row r="533" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="533" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B533" s="8"/>
     </row>
-    <row r="534" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="534" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B534" s="8"/>
     </row>
-    <row r="535" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="535" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B535" s="8"/>
     </row>
-    <row r="536" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="536" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B536" s="8"/>
     </row>
-    <row r="537" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="537" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B537" s="8"/>
     </row>
-    <row r="538" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="538" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B538" s="8"/>
     </row>
-    <row r="539" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="539" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B539" s="8"/>
     </row>
-    <row r="540" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="540" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B540" s="8"/>
     </row>
-    <row r="541" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="541" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B541" s="8"/>
     </row>
-    <row r="542" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="542" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B542" s="8"/>
     </row>
-    <row r="543" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="543" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B543" s="8"/>
     </row>
-    <row r="544" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="544" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B544" s="8"/>
     </row>
-    <row r="545" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="545" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B545" s="8"/>
     </row>
-    <row r="546" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="546" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B546" s="8"/>
     </row>
-    <row r="547" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="547" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B547" s="8"/>
     </row>
-    <row r="548" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="548" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B548" s="8"/>
     </row>
-    <row r="549" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="549" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B549" s="8"/>
     </row>
-    <row r="550" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="550" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B550" s="8"/>
     </row>
-    <row r="551" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="551" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B551" s="8"/>
     </row>
-    <row r="552" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="552" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B552" s="8"/>
     </row>
-    <row r="553" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="553" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B553" s="8"/>
     </row>
-    <row r="554" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="554" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B554" s="8"/>
     </row>
-    <row r="555" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="555" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B555" s="8"/>
     </row>
-    <row r="556" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="556" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B556" s="8"/>
     </row>
-    <row r="557" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="557" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B557" s="8"/>
     </row>
-    <row r="558" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="558" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B558" s="8"/>
     </row>
-    <row r="559" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="559" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B559" s="8"/>
     </row>
-    <row r="560" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="560" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B560" s="8"/>
     </row>
-    <row r="561" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="561" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B561" s="8"/>
     </row>
-    <row r="562" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="562" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B562" s="8"/>
     </row>
-    <row r="563" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="563" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B563" s="8"/>
     </row>
-    <row r="564" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="564" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B564" s="8"/>
     </row>
-    <row r="565" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="565" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B565" s="8"/>
     </row>
-    <row r="566" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="566" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B566" s="8"/>
     </row>
-    <row r="567" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="567" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B567" s="8"/>
     </row>
-    <row r="568" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="568" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B568" s="8"/>
     </row>
-    <row r="569" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="569" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B569" s="8"/>
     </row>
-    <row r="570" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="570" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B570" s="8"/>
     </row>
-    <row r="571" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="571" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B571" s="8"/>
     </row>
-    <row r="572" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="572" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B572" s="8"/>
     </row>
-    <row r="573" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="573" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B573" s="8"/>
     </row>
-    <row r="574" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="574" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B574" s="8"/>
     </row>
-    <row r="575" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="575" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B575" s="8"/>
     </row>
-    <row r="576" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="576" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B576" s="8"/>
     </row>
-    <row r="577" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="577" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B577" s="8"/>
     </row>
-    <row r="578" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="578" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B578" s="8"/>
     </row>
-    <row r="579" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="579" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B579" s="8"/>
     </row>
-    <row r="580" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="580" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B580" s="8"/>
     </row>
-    <row r="581" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="581" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B581" s="8"/>
     </row>
-    <row r="582" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="582" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B582" s="8"/>
     </row>
-    <row r="583" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="583" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B583" s="8"/>
     </row>
-    <row r="584" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="584" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B584" s="8"/>
     </row>
-    <row r="585" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="585" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B585" s="8"/>
     </row>
-    <row r="586" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="586" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B586" s="8"/>
     </row>
   </sheetData>
